--- a/lib/uploads/2017_1_A_SEA-1.xlsx
+++ b/lib/uploads/2017_1_A_SEA-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -46,10 +46,34 @@
     <t>CLASS 1 (2017-18)</t>
   </si>
   <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
     <t>MAXIMUM MARKS</t>
   </si>
   <si>
-    <t>SUBJECT ENRICHMENT-1 (SEA-1)</t>
+    <t>SUMMATIVE ASSESSMENT-1 (SA-1)</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Shreyansh Deb</t>
+  </si>
+  <si>
+    <t>Prateek Gupta</t>
+  </si>
+  <si>
+    <t>Shubham Sharma</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -97,7 +121,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,14 +140,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -242,49 +260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -312,20 +287,44 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,15 +348,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,21 +372,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -701,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,18 +714,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -742,18 +736,18 @@
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -764,18 +758,18 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="A3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -786,135 +780,221 @@
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="14">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14">
-        <v>10</v>
-      </c>
-      <c r="F7" s="14">
-        <v>10</v>
-      </c>
-      <c r="G7" s="14">
-        <v>20</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15">
+        <v>80</v>
+      </c>
+      <c r="D7" s="15">
+        <v>80</v>
+      </c>
+      <c r="E7" s="15">
+        <v>80</v>
+      </c>
+      <c r="F7" s="15">
+        <v>80</v>
+      </c>
+      <c r="G7" s="15">
+        <v>80</v>
+      </c>
+      <c r="H7" s="15">
+        <f>C7+D7+E7+F7+G7</f>
+        <v>400</v>
+      </c>
+      <c r="I7" s="15">
+        <v>150</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>55</v>
+      </c>
+      <c r="H8" s="15" t="e">
+        <f>C8+D8+E8+F8+F8+G8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="21">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5">
+        <v>55</v>
+      </c>
+      <c r="H9" s="15" t="e">
+        <f t="shared" ref="H8:H56" si="0">C9+D9+E9+F9+G9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="13">
+        <v>110</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5">
+        <v>55</v>
+      </c>
+      <c r="H10" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="13">
+        <v>115</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -922,17 +1002,22 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -940,17 +1025,22 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -958,17 +1048,22 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -976,17 +1071,22 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -994,17 +1094,22 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="H15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1012,17 +1117,22 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="H16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1030,17 +1140,22 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="H17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1048,17 +1163,22 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="H18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1066,17 +1186,22 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="H19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1084,17 +1209,22 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="H20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1102,17 +1232,22 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="H21" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1120,17 +1255,22 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="H22" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1138,17 +1278,22 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="H23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1156,17 +1301,22 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="H24" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1174,9 +1324,14 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H25" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1184,9 +1339,14 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H26" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1194,9 +1354,14 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H27" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1204,9 +1369,14 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H28" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1214,9 +1384,14 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H29" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1224,9 +1399,14 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H30" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1234,9 +1414,14 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1244,9 +1429,14 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1254,9 +1444,14 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1264,9 +1459,14 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1274,9 +1474,14 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1284,9 +1489,14 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1294,9 +1504,14 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1304,9 +1519,14 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1314,9 +1534,14 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1324,9 +1549,14 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1334,9 +1564,14 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1344,9 +1579,14 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1354,9 +1594,14 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1364,9 +1609,14 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1374,9 +1624,14 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1384,9 +1639,14 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1394,9 +1654,14 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1404,9 +1669,14 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1414,9 +1684,14 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1424,9 +1699,14 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1434,9 +1714,14 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1444,9 +1729,14 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="21"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1454,9 +1744,14 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="21"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1464,9 +1759,14 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="21"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1474,9 +1774,14 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="21"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1484,14 +1789,19 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="22"/>
+      <c r="H56" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="14"/>
+      <c r="J56" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/lib/uploads/2017_1_A_SEA-1.xlsx
+++ b/lib/uploads/2017_1_A_SEA-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -46,16 +46,10 @@
     <t>CLASS 1 (2017-18)</t>
   </si>
   <si>
-    <t>Attendance</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>MAXIMUM MARKS</t>
   </si>
   <si>
-    <t>SUMMATIVE ASSESSMENT-1 (SA-1)</t>
+    <t>SUBJECT ENRICHMENT-1 (SEA-1)</t>
   </si>
   <si>
     <t>^</t>
@@ -68,12 +62,6 @@
   </si>
   <si>
     <t>Shubham Sharma</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -141,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -283,48 +271,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,10 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,13 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -695,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,18 +655,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -736,18 +677,18 @@
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -758,18 +699,18 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="A3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -780,219 +721,189 @@
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15">
-        <v>80</v>
-      </c>
-      <c r="D7" s="15">
-        <v>80</v>
-      </c>
-      <c r="E7" s="15">
-        <v>80</v>
-      </c>
-      <c r="F7" s="15">
-        <v>80</v>
-      </c>
-      <c r="G7" s="15">
-        <v>80</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13">
+        <v>10</v>
+      </c>
+      <c r="G7" s="13">
+        <v>20</v>
+      </c>
+      <c r="H7" s="13">
         <f>C7+D7+E7+F7+G7</f>
-        <v>400</v>
-      </c>
-      <c r="I7" s="15">
-        <v>150</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>55</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>55</v>
-      </c>
-      <c r="H8" s="15" t="e">
-        <f>C8+D8+E8+F8+F8+G8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" s="21">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H8" s="13">
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
+        <v>45</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9</v>
       </c>
       <c r="G9" s="5">
-        <v>55</v>
-      </c>
-      <c r="H9" s="15" t="e">
-        <f t="shared" ref="H8:H56" si="0">C9+D9+E9+F9+G9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="13">
-        <v>110</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" ref="H9:H56" si="0">SUMIF(C9:G9,"&lt;&gt;#AB")</f>
+        <v>51</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
       </c>
       <c r="G10" s="5">
-        <v>55</v>
-      </c>
-      <c r="H10" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" s="13">
-        <v>115</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -1002,20 +913,18 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -1025,20 +934,18 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="2"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1048,20 +955,18 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="2"/>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -1071,20 +976,18 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="2"/>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -1094,20 +997,18 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="2"/>
+      <c r="H15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -1117,22 +1018,20 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="2"/>
+      <c r="H16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1140,22 +1039,20 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="2"/>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1163,22 +1060,20 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="2"/>
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1186,22 +1081,20 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="2"/>
+      <c r="H19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1209,22 +1102,20 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="2"/>
+      <c r="H20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1232,22 +1123,20 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="2"/>
+      <c r="H21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1255,22 +1144,20 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="2"/>
+      <c r="H22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1278,22 +1165,20 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="2"/>
+      <c r="H23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1301,22 +1186,20 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="2"/>
+      <c r="H24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1324,14 +1207,12 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1339,14 +1220,12 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1354,14 +1233,12 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1369,14 +1246,12 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1384,14 +1259,12 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1399,14 +1272,12 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1414,14 +1285,12 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1429,14 +1298,12 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1444,14 +1311,12 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1459,14 +1324,12 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1474,14 +1337,12 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1489,14 +1350,12 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1504,14 +1363,12 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1519,14 +1376,12 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1534,14 +1389,12 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1549,14 +1402,12 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1564,14 +1415,12 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1579,14 +1428,12 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1594,14 +1441,12 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1609,14 +1454,12 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1624,14 +1467,12 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="14"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1639,14 +1480,12 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1654,14 +1493,12 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1669,14 +1506,12 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1684,14 +1519,12 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1699,14 +1532,12 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1714,14 +1545,12 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1729,14 +1558,12 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1744,14 +1571,12 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1759,14 +1584,12 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1774,14 +1597,12 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1789,19 +1610,17 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="11"/>
+      <c r="H56" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
